--- a/test_data/Выкупы — копия.xlsx
+++ b/test_data/Выкупы — копия.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7979201A-8D04-4466-ABB9-F43148301F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5226F543-D84D-4989-9AA9-10BE0D324AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Серьги для девочек</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Количество необходимых ПВЗ</t>
-  </si>
-  <si>
-    <t>Order ID</t>
   </si>
 </sst>
 </file>
@@ -435,7 +432,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -460,9 +457,6 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
@@ -476,9 +470,6 @@
       </c>
       <c r="D2">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>123</v>
       </c>
       <c r="F2" s="1"/>
     </row>

--- a/test_data/Выкупы — копия.xlsx
+++ b/test_data/Выкупы — копия.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5226F543-D84D-4989-9AA9-10BE0D324AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5508D73A-9935-42F5-B091-454D86C2762A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3000" windowWidth="28100" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="2480" yWindow="1520" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Серьги для девочек</t>
-  </si>
-  <si>
-    <t>Серьги</t>
-  </si>
-  <si>
-    <t>Пирсинг обманка</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Артикул</t>
   </si>
@@ -53,6 +44,15 @@
   </si>
   <si>
     <t>Количество необходимых ПВЗ</t>
+  </si>
+  <si>
+    <t>платье летнее женское</t>
+  </si>
+  <si>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -446,61 +446,59 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>44398622</v>
+        <v>21514902</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>18643134</v>
+        <v>47824515</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>36927260</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/Выкупы — копия.xlsx
+++ b/test_data/Выкупы — копия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5508D73A-9935-42F5-B091-454D86C2762A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B515421-5424-4755-A4AD-8CF2001949FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1520" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="37550" windowHeight="21820" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>47824515</v>
+        <v>70551359</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
